--- a/data/trans_dic/IP13_R2_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP13_R2_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,47</t>
+          <t>0,0; 21,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,96</t>
+          <t>0,0; 17,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,62</t>
+          <t>0,0; 13,39</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,96</t>
+          <t>1,33; 7,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 5,71</t>
+          <t>1,13; 6,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,77; 5,71</t>
+          <t>1,89; 6,11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,46</t>
+          <t>2,77; 7,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 7,31</t>
+          <t>2,48; 7,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 6,56</t>
+          <t>3,07; 6,34</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,56; 7,94</t>
+          <t>2,4; 8,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,96; 6,89</t>
+          <t>1,86; 7,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,71; 6,4</t>
+          <t>2,64; 6,54</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,61; 10,46</t>
+          <t>3,84; 10,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 8,3</t>
+          <t>2,41; 8,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,81; 7,75</t>
+          <t>3,65; 7,85</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,66; 6,44</t>
+          <t>3,73; 6,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,03; 5,76</t>
+          <t>2,97; 5,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,65; 5,55</t>
+          <t>3,67; 5,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP13_R2_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP13_R2_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,36%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,75</t>
+          <t>1,34; 6,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,94</t>
+          <t>1,63; 7,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,39</t>
+          <t>1,87; 5,73</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>4,43%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 7,81</t>
+          <t>2,51; 7,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,13; 6,29</t>
+          <t>2,74; 7,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 6,11</t>
+          <t>3,11; 6,53</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>4,03%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 7,72</t>
+          <t>1,47; 6,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 7,16</t>
+          <t>2,35; 8,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,07; 6,34</t>
+          <t>2,47; 6,18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>5,7%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 8,22</t>
+          <t>2,67; 8,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,86; 7,12</t>
+          <t>3,98; 10,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,64; 6,54</t>
+          <t>3,89; 8,18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>4,44%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,84; 10,45</t>
+          <t>2,88; 5,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,41; 8,26</t>
+          <t>3,61; 6,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,65; 7,85</t>
+          <t>3,64; 5,51</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>4,9%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,13%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>4,54%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>3,73; 6,52</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,97; 5,63</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>3,67; 5,52</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
